--- a/ST_10_11_HLR_TEST-SCENARIO_TEST-CASES.xlsx
+++ b/ST_10_11_HLR_TEST-SCENARIO_TEST-CASES.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873218B0-1F0A-48F2-A1AD-5E3A2BC24097}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999C8EF4-2969-4833-8DDB-1BE2C8F0523A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" xr2:uid="{741545E3-541F-4BD6-93D5-3FE37947E1C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="2" xr2:uid="{741545E3-541F-4BD6-93D5-3FE37947E1C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="HLR- Facebook" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Scenario - Table " sheetId="2" r:id="rId1"/>
+    <sheet name="Test Scenario - AC" sheetId="3" r:id="rId2"/>
+    <sheet name="HLR- Facebook" sheetId="1" r:id="rId3"/>
+    <sheet name="Test Scenario - Facebook" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
   <si>
     <t>Function #</t>
   </si>
@@ -112,6 +115,162 @@
   </si>
   <si>
     <t>User can be notified when there fiend request,like the post/stories,message etc</t>
+  </si>
+  <si>
+    <t>Test scenario #</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>To check the wood quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base </t>
+  </si>
+  <si>
+    <t>Electric Socket</t>
+  </si>
+  <si>
+    <t>Weight capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the Material </t>
+  </si>
+  <si>
+    <t>Height &amp; Width</t>
+  </si>
+  <si>
+    <t>table drawer</t>
+  </si>
+  <si>
+    <t>easily moveable/folding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose : study,lunch ,decoration </t>
+  </si>
+  <si>
+    <t>lock in drawer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shape of the table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>Durability</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>tempreration range</t>
+  </si>
+  <si>
+    <t>star rating / review</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>gurrenty/warrenty</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">material </t>
+  </si>
+  <si>
+    <t>cooling time</t>
+  </si>
+  <si>
+    <t>fan speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttons </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remote range </t>
+  </si>
+  <si>
+    <t>Test scenario Description</t>
+  </si>
+  <si>
+    <t>To check the registration with valid details</t>
+  </si>
+  <si>
+    <t>To check the registration with invalid details</t>
+  </si>
+  <si>
+    <t>To check the registration with blanck details</t>
+  </si>
+  <si>
+    <t>To check the registration with mandatory filed as blank</t>
+  </si>
+  <si>
+    <t>To check captcha</t>
+  </si>
+  <si>
+    <t>To check the registration with dublicate username/email/phonename</t>
+  </si>
+  <si>
+    <t>To check the content of terms and condition</t>
+  </si>
+  <si>
+    <t>To check the password with proper combination (special character,alphabets , numerics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the all the field  with length </t>
+  </si>
+  <si>
+    <t>To check the response time after successful registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check the error messages </t>
+  </si>
+  <si>
+    <t>To check the font,font size , placeholder , position of fields ,color ,theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check header and footer </t>
+  </si>
+  <si>
+    <t>To check the login with valid credentials</t>
+  </si>
+  <si>
+    <t>To check the login with invalid credentials</t>
+  </si>
+  <si>
+    <t>To check the blank credential</t>
+  </si>
+  <si>
+    <t>To check the blank credential with mandatory.</t>
+  </si>
+  <si>
+    <t>To check the Forgate Password</t>
+  </si>
+  <si>
+    <t>To check the login with google,facebook ,are properly redirect to releted page</t>
+  </si>
+  <si>
+    <t>To check the google, facebook link redirect to releted page</t>
+  </si>
+  <si>
+    <t>To check Font , Font size,color, postions</t>
+  </si>
+  <si>
+    <t>To check the login with username/phone number/Email Id.</t>
+  </si>
+  <si>
+    <t>To check the response time of successful login</t>
   </si>
 </sst>
 </file>
@@ -134,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +303,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,12 +331,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,11 +652,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD44C7A-80CE-48E1-9377-78A7E89B2DDE}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C5CCC1-B5F6-4A1D-83EF-B96B9FB06772}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFC5E53-818C-4871-904A-E748A412201A}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,4 +1078,242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DF78FE-EB6A-4188-A3DE-376C8FE335E8}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>101.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>101.2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>101.3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>101.4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>101.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>101.6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>101.7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>101.8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>101.9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>101.11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>101.12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>101.13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>101.14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>101.15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>102.1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>102.2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>102.3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>104.4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>102.5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>102.6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>102.7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>102.8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>102.9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ST_10_11_HLR_TEST-SCENARIO_TEST-CASES.xlsx
+++ b/ST_10_11_HLR_TEST-SCENARIO_TEST-CASES.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999C8EF4-2969-4833-8DDB-1BE2C8F0523A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554137F8-C173-4548-8B40-CF344D996401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="2" xr2:uid="{741545E3-541F-4BD6-93D5-3FE37947E1C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" firstSheet="1" activeTab="4" xr2:uid="{741545E3-541F-4BD6-93D5-3FE37947E1C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario - Table " sheetId="2" r:id="rId1"/>
     <sheet name="Test Scenario - AC" sheetId="3" r:id="rId2"/>
     <sheet name="HLR- Facebook" sheetId="1" r:id="rId3"/>
     <sheet name="Test Scenario - Facebook" sheetId="4" r:id="rId4"/>
+    <sheet name="Test Cases - FB" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
   <si>
     <t>Function #</t>
   </si>
@@ -271,6 +272,120 @@
   </si>
   <si>
     <t>To check the response time of successful login</t>
+  </si>
+  <si>
+    <t>Test Scenario #</t>
+  </si>
+  <si>
+    <t>Test case #</t>
+  </si>
+  <si>
+    <t>Test case Description</t>
+  </si>
+  <si>
+    <t>Test steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Postive/Nagative Testing</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>ScreenShots</t>
+  </si>
+  <si>
+    <t>To cheeck login with valid data</t>
+  </si>
+  <si>
+    <t>1. Open Browser
+2. Enter URL
+3. Click on Login</t>
+  </si>
+  <si>
+    <t>UserName : tarun
+Password : Tarun@234</t>
+  </si>
+  <si>
+    <t>Login Should be successful</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>To cheeck login with valid data- Mobile Number and password</t>
+  </si>
+  <si>
+    <t>UserName : 908907877
+Password : Tarun@234</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>To check Login with invalid username and invalid password</t>
+  </si>
+  <si>
+    <t>UserName : rrr
+Password : cdf</t>
+  </si>
+  <si>
+    <t>Should shows error message "Username or password is invalid"</t>
+  </si>
+  <si>
+    <t>Successfully Logged in</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check Login with black data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserName : 
+Password : </t>
+  </si>
+  <si>
+    <t>Should shows error message "Fill fields Username and Password" in red color</t>
+  </si>
+  <si>
+    <t>To checl login with forget passwrd link</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>To check the Forgate Password link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the forget password page shuold be open </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To check position of forget password link . </t>
+  </si>
+  <si>
+    <t>the position of forget password link should be at below the login data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login link display at bottom of the page </t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
 </sst>
 </file>
@@ -331,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,6 +454,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFC5E53-818C-4871-904A-E748A412201A}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1086,7 +1202,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,4 +1432,247 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7474051B-8F76-444F-AAB9-F6180682F38A}">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>102.1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <v>102.11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>102.12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>102.2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>102.21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>102.3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5">
+        <v>102.31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>102.5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6">
+        <v>102.51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>102.52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>